--- a/GES_Dimension_Expansion/Mech GRP foundation for VLSE rev6 - Original.xlsx
+++ b/GES_Dimension_Expansion/Mech GRP foundation for VLSE rev6 - Original.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/104092_grundfos_com/Documents/!Projects/Patrick - Pipe dimension permutations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/104092_grundfos_com/Documents/Documents/git/grundfos-express-tools/GES_Dimension_Expansion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{49B8617A-84D0-45F3-9699-4D585DE5FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED349F22-570A-42B0-9EC2-2C86C083B916}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{49B8617A-84D0-45F3-9699-4D585DE5FAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8476CA9E-94C4-4898-9932-4A94A804ACEA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2070" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3BC7BFE7-2232-4F98-B67E-6AA85FB55FA6}"/>
+    <workbookView xWindow="-28920" yWindow="2925" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3BC7BFE7-2232-4F98-B67E-6AA85FB55FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Number of Pumps" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GES_VLSE!$A$1:$AU$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2854,9 +2853,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2866,6 +2862,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3204,22 +3203,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="9"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -3545,17 +3544,17 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="G17" s="16" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -3748,17 +3747,17 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
@@ -3935,11 +3934,11 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -4073,15 +4072,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
@@ -4090,7 +4089,7 @@
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
     <col min="16" max="16" width="22.85546875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="23.140625" hidden="1" customWidth="1"/>
@@ -4098,7 +4097,7 @@
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="20" width="30.140625" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" style="18" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="17" customWidth="1"/>
     <col min="23" max="23" width="35.85546875" style="13" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="26.5703125" style="13" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="20.85546875" hidden="1" customWidth="1"/>
@@ -4113,113 +4112,113 @@
     <col min="45" max="45" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:43" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>851</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="AC1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AC1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AK1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4264,7 +4263,7 @@
         <f>R2</f>
         <v>2</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <f>W2</f>
         <v>2</v>
       </c>
@@ -4292,7 +4291,7 @@
         <f t="shared" ref="U2:U65" si="0">"BRANCH_"&amp;"MIN"&amp;L2&amp;"_MAX"&amp;R2</f>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V2" s="18" t="str">
+      <c r="V2" s="17" t="str">
         <f>Z2</f>
         <v>2,2.5,3</v>
       </c>
@@ -4383,7 +4382,7 @@
         <f t="shared" ref="M3:M66" si="2">R3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="17" t="str">
+      <c r="N3" s="16" t="str">
         <f t="shared" ref="N3:N66" si="3">W3</f>
         <v>2,2.5,3</v>
       </c>
@@ -4411,7 +4410,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V3" s="18" t="str">
+      <c r="V3" s="17" t="str">
         <f t="shared" ref="V3:V66" si="6">Z3</f>
         <v>2,2.5,3,4</v>
       </c>
@@ -4502,7 +4501,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N4" s="17" t="str">
+      <c r="N4" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -4530,7 +4529,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V4" s="18" t="str">
+      <c r="V4" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -4621,7 +4620,7 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="N5" s="17" t="str">
+      <c r="N5" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5</v>
       </c>
@@ -4649,7 +4648,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V5" s="18" t="str">
+      <c r="V5" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -4740,7 +4739,7 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5</v>
       </c>
@@ -4768,7 +4767,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V6" s="18" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -4859,7 +4858,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -4887,7 +4886,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V7" s="18" t="str">
+      <c r="V7" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -4978,7 +4977,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -5006,7 +5005,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V8" s="18" t="str">
+      <c r="V8" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -5097,7 +5096,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -5125,7 +5124,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V9" s="18" t="str">
+      <c r="V9" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -5216,7 +5215,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -5244,7 +5243,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V10" s="18" t="str">
+      <c r="V10" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -5335,7 +5334,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -5363,7 +5362,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V11" s="18" t="str">
+      <c r="V11" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -5454,7 +5453,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -5482,7 +5481,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V12" s="18" t="str">
+      <c r="V12" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -5574,7 +5573,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -5602,7 +5601,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V13" s="18" t="str">
+      <c r="V13" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -5694,7 +5693,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3</v>
       </c>
@@ -5722,7 +5721,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V14" s="18" t="str">
+      <c r="V14" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4</v>
       </c>
@@ -5814,7 +5813,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -5842,7 +5841,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V15" s="18" t="str">
+      <c r="V15" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -5934,7 +5933,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -5962,7 +5961,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V16" s="18" t="str">
+      <c r="V16" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -6054,7 +6053,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -6082,7 +6081,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V17" s="18" t="str">
+      <c r="V17" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -6174,7 +6173,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -6202,7 +6201,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V18" s="18" t="str">
+      <c r="V18" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -6294,7 +6293,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -6322,7 +6321,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V19" s="18" t="str">
+      <c r="V19" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -6414,7 +6413,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -6442,7 +6441,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V20" s="18" t="str">
+      <c r="V20" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5</v>
       </c>
@@ -6534,7 +6533,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -6562,7 +6561,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V21" s="18" t="str">
+      <c r="V21" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5</v>
       </c>
@@ -6654,7 +6653,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -6682,7 +6681,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V22" s="18" t="str">
+      <c r="V22" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5</v>
       </c>
@@ -6774,7 +6773,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -6802,7 +6801,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V23" s="18" t="str">
+      <c r="V23" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6</v>
       </c>
@@ -6894,7 +6893,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -6922,7 +6921,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V24" s="18" t="str">
+      <c r="V24" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6</v>
       </c>
@@ -7014,7 +7013,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -7042,7 +7041,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V25" s="18" t="str">
+      <c r="V25" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6</v>
       </c>
@@ -7134,7 +7133,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4</v>
       </c>
@@ -7162,7 +7161,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V26" s="18" t="str">
+      <c r="V26" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6</v>
       </c>
@@ -7254,7 +7253,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4,5</v>
       </c>
@@ -7282,7 +7281,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V27" s="18" t="str">
+      <c r="V27" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6</v>
       </c>
@@ -7374,7 +7373,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,4,5</v>
       </c>
@@ -7402,7 +7401,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V28" s="18" t="str">
+      <c r="V28" s="17" t="str">
         <f t="shared" si="6"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -7494,7 +7493,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
@@ -7522,7 +7521,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V29" s="18" t="str">
+      <c r="V29" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6</v>
       </c>
@@ -7614,7 +7613,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N30" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5</v>
       </c>
@@ -7642,7 +7641,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V30" s="18" t="str">
+      <c r="V30" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6</v>
       </c>
@@ -7734,7 +7733,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N31" s="17" t="str">
+      <c r="N31" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5</v>
       </c>
@@ -7762,7 +7761,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V31" s="18" t="str">
+      <c r="V31" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -7854,7 +7853,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N32" s="17" t="str">
+      <c r="N32" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5</v>
       </c>
@@ -7882,7 +7881,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V32" s="18" t="str">
+      <c r="V32" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -7974,7 +7973,7 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="N33" s="17" t="str">
+      <c r="N33" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5</v>
       </c>
@@ -8002,7 +8001,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V33" s="18" t="str">
+      <c r="V33" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -8094,7 +8093,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N34" s="17" t="str">
+      <c r="N34" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5,6</v>
       </c>
@@ -8122,7 +8121,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V34" s="18" t="str">
+      <c r="V34" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -8214,7 +8213,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N35" s="17" t="str">
+      <c r="N35" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5,6</v>
       </c>
@@ -8242,7 +8241,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V35" s="18" t="str">
+      <c r="V35" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -8334,7 +8333,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N36" s="17" t="str">
+      <c r="N36" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,5,6</v>
       </c>
@@ -8362,7 +8361,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V36" s="18" t="str">
+      <c r="V36" s="17" t="str">
         <f t="shared" si="6"/>
         <v>4,5,6,8</v>
       </c>
@@ -8454,7 +8453,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N37" s="17" t="str">
+      <c r="N37" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -8482,7 +8481,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V37" s="18" t="str">
+      <c r="V37" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8</v>
       </c>
@@ -8574,7 +8573,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N38" s="17" t="str">
+      <c r="N38" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -8602,7 +8601,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V38" s="18" t="str">
+      <c r="V38" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8</v>
       </c>
@@ -8694,7 +8693,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N39" s="17" t="str">
+      <c r="N39" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -8722,7 +8721,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V39" s="18" t="str">
+      <c r="V39" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8</v>
       </c>
@@ -8814,7 +8813,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N40" s="17" t="str">
+      <c r="N40" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -8842,7 +8841,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V40" s="18" t="str">
+      <c r="V40" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -8934,7 +8933,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N41" s="17" t="str">
+      <c r="N41" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6,8</v>
       </c>
@@ -8962,7 +8961,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V41" s="18" t="str">
+      <c r="V41" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9054,7 +9053,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N42" s="17" t="str">
+      <c r="N42" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6,8</v>
       </c>
@@ -9082,7 +9081,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V42" s="18" t="str">
+      <c r="V42" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9174,7 +9173,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N43" s="17" t="str">
+      <c r="N43" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -9202,7 +9201,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V43" s="18" t="str">
+      <c r="V43" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8</v>
       </c>
@@ -9294,7 +9293,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N44" s="17" t="str">
+      <c r="N44" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -9322,7 +9321,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V44" s="18" t="str">
+      <c r="V44" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9414,7 +9413,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N45" s="17" t="str">
+      <c r="N45" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6,8</v>
       </c>
@@ -9442,7 +9441,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V45" s="18" t="str">
+      <c r="V45" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9534,7 +9533,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N46" s="17" t="str">
+      <c r="N46" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6</v>
       </c>
@@ -9562,7 +9561,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V46" s="18" t="str">
+      <c r="V46" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9654,7 +9653,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N47" s="17" t="str">
+      <c r="N47" s="16" t="str">
         <f t="shared" si="3"/>
         <v>5,6,8</v>
       </c>
@@ -9682,7 +9681,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V47" s="18" t="str">
+      <c r="V47" s="17" t="str">
         <f t="shared" si="6"/>
         <v>5,6,8,10</v>
       </c>
@@ -9774,7 +9773,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N48" s="17" t="str">
+      <c r="N48" s="16" t="str">
         <f t="shared" si="3"/>
         <v>6,8</v>
       </c>
@@ -9802,7 +9801,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V48" s="18" t="str">
+      <c r="V48" s="17" t="str">
         <f t="shared" si="6"/>
         <v>6,8,10</v>
       </c>
@@ -9894,7 +9893,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N49" s="17" t="str">
+      <c r="N49" s="16" t="str">
         <f t="shared" si="3"/>
         <v>6,8</v>
       </c>
@@ -9922,7 +9921,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V49" s="18" t="str">
+      <c r="V49" s="17" t="str">
         <f t="shared" si="6"/>
         <v>6,8,10,12</v>
       </c>
@@ -10008,7 +10007,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="N50" s="17" t="str">
+      <c r="N50" s="16" t="str">
         <f t="shared" si="3"/>
         <v>6,8</v>
       </c>
@@ -10036,7 +10035,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V50" s="18" t="str">
+      <c r="V50" s="17" t="str">
         <f t="shared" si="6"/>
         <v>6,8,10,12</v>
       </c>
@@ -10122,7 +10121,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N51" s="17" t="str">
+      <c r="N51" s="16" t="str">
         <f t="shared" si="3"/>
         <v>8,10</v>
       </c>
@@ -10150,7 +10149,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V51" s="18" t="str">
+      <c r="V51" s="17" t="str">
         <f t="shared" si="6"/>
         <v>8,10,12,14</v>
       </c>
@@ -10235,7 +10234,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="16">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -10263,7 +10262,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V52" s="18" t="str">
+      <c r="V52" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -10348,7 +10347,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N53" s="17" t="str">
+      <c r="N53" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -10376,7 +10375,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V53" s="18" t="str">
+      <c r="V53" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -10461,7 +10460,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N54" s="17" t="str">
+      <c r="N54" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -10489,7 +10488,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V54" s="18" t="str">
+      <c r="V54" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -10574,7 +10573,7 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="N55" s="17" t="str">
+      <c r="N55" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5</v>
       </c>
@@ -10602,7 +10601,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V55" s="18" t="str">
+      <c r="V55" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -10687,7 +10686,7 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="N56" s="17" t="str">
+      <c r="N56" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5</v>
       </c>
@@ -10715,7 +10714,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V56" s="18" t="str">
+      <c r="V56" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -10800,7 +10799,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N57" s="17" t="str">
+      <c r="N57" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -10828,7 +10827,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V57" s="18" t="str">
+      <c r="V57" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -10913,7 +10912,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N58" s="17" t="str">
+      <c r="N58" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -10941,7 +10940,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V58" s="18" t="str">
+      <c r="V58" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -11026,7 +11025,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N59" s="17" t="str">
+      <c r="N59" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -11054,7 +11053,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V59" s="18" t="str">
+      <c r="V59" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -11139,7 +11138,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N60" s="17" t="str">
+      <c r="N60" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -11167,7 +11166,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V60" s="18" t="str">
+      <c r="V60" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -11252,7 +11251,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N61" s="17" t="str">
+      <c r="N61" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3</v>
       </c>
@@ -11280,7 +11279,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V61" s="18" t="str">
+      <c r="V61" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -11365,7 +11364,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N62" s="17" t="str">
+      <c r="N62" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -11393,7 +11392,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V62" s="18" t="str">
+      <c r="V62" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -11479,7 +11478,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N63" s="17" t="str">
+      <c r="N63" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -11507,7 +11506,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V63" s="18" t="str">
+      <c r="V63" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -11593,7 +11592,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N64" s="17" t="str">
+      <c r="N64" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3</v>
       </c>
@@ -11621,7 +11620,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V64" s="18" t="str">
+      <c r="V64" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -11707,7 +11706,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N65" s="17" t="str">
+      <c r="N65" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -11735,7 +11734,7 @@
         <f t="shared" si="0"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V65" s="18" t="str">
+      <c r="V65" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -11821,7 +11820,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N66" s="17" t="str">
+      <c r="N66" s="16" t="str">
         <f t="shared" si="3"/>
         <v>2.5,3,4</v>
       </c>
@@ -11849,7 +11848,7 @@
         <f t="shared" ref="U66:U129" si="10">"BRANCH_"&amp;"MIN"&amp;L66&amp;"_MAX"&amp;R66</f>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V66" s="18" t="str">
+      <c r="V66" s="17" t="str">
         <f t="shared" si="6"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -11935,7 +11934,7 @@
         <f t="shared" ref="M67:M130" si="12">R67</f>
         <v>4</v>
       </c>
-      <c r="N67" s="17" t="str">
+      <c r="N67" s="16" t="str">
         <f t="shared" ref="N67:N130" si="13">W67</f>
         <v>2.5,3,4</v>
       </c>
@@ -11963,7 +11962,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V67" s="18" t="str">
+      <c r="V67" s="17" t="str">
         <f t="shared" ref="V67:V130" si="16">Z67</f>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -12049,7 +12048,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N68" s="17" t="str">
+      <c r="N68" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -12077,7 +12076,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V68" s="18" t="str">
+      <c r="V68" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -12163,7 +12162,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N69" s="17" t="str">
+      <c r="N69" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -12191,7 +12190,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V69" s="18" t="str">
+      <c r="V69" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -12277,7 +12276,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N70" s="17" t="str">
+      <c r="N70" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12305,7 +12304,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V70" s="18" t="str">
+      <c r="V70" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6</v>
       </c>
@@ -12391,7 +12390,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N71" s="17" t="str">
+      <c r="N71" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12419,7 +12418,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V71" s="18" t="str">
+      <c r="V71" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6</v>
       </c>
@@ -12505,7 +12504,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N72" s="17" t="str">
+      <c r="N72" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12533,7 +12532,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V72" s="18" t="str">
+      <c r="V72" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6</v>
       </c>
@@ -12619,7 +12618,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N73" s="17" t="str">
+      <c r="N73" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12647,7 +12646,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V73" s="18" t="str">
+      <c r="V73" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -12733,7 +12732,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N74" s="17" t="str">
+      <c r="N74" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12761,7 +12760,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V74" s="18" t="str">
+      <c r="V74" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -12847,7 +12846,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N75" s="17" t="str">
+      <c r="N75" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12875,7 +12874,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V75" s="18" t="str">
+      <c r="V75" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -12961,7 +12960,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N76" s="17" t="str">
+      <c r="N76" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -12989,7 +12988,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V76" s="18" t="str">
+      <c r="V76" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -13075,7 +13074,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N77" s="17" t="str">
+      <c r="N77" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4,5</v>
       </c>
@@ -13103,7 +13102,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V77" s="18" t="str">
+      <c r="V77" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -13189,7 +13188,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N78" s="17" t="str">
+      <c r="N78" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4,5</v>
       </c>
@@ -13217,7 +13216,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V78" s="18" t="str">
+      <c r="V78" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -13303,7 +13302,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N79" s="16">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -13331,7 +13330,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V79" s="18" t="str">
+      <c r="V79" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8</v>
       </c>
@@ -13417,7 +13416,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N80" s="17" t="str">
+      <c r="N80" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5</v>
       </c>
@@ -13445,7 +13444,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V80" s="18" t="str">
+      <c r="V80" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8</v>
       </c>
@@ -13531,7 +13530,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N81" s="17" t="str">
+      <c r="N81" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5</v>
       </c>
@@ -13559,7 +13558,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V81" s="18" t="str">
+      <c r="V81" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8</v>
       </c>
@@ -13645,7 +13644,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N82" s="17" t="str">
+      <c r="N82" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5</v>
       </c>
@@ -13673,7 +13672,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V82" s="18" t="str">
+      <c r="V82" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8</v>
       </c>
@@ -13759,7 +13758,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N83" s="17" t="str">
+      <c r="N83" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5</v>
       </c>
@@ -13787,7 +13786,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V83" s="18" t="str">
+      <c r="V83" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -13864,7 +13863,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N84" s="17" t="str">
+      <c r="N84" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5,6</v>
       </c>
@@ -13892,7 +13891,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V84" s="18" t="str">
+      <c r="V84" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -13969,7 +13968,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N85" s="17" t="str">
+      <c r="N85" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5,6</v>
       </c>
@@ -13997,7 +13996,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V85" s="18" t="str">
+      <c r="V85" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -14074,7 +14073,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N86" s="17" t="str">
+      <c r="N86" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5,6</v>
       </c>
@@ -14102,7 +14101,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V86" s="18" t="str">
+      <c r="V86" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -14179,7 +14178,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N87" s="17" t="str">
+      <c r="N87" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14207,7 +14206,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V87" s="18" t="str">
+      <c r="V87" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10</v>
       </c>
@@ -14284,7 +14283,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N88" s="17" t="str">
+      <c r="N88" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14312,7 +14311,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V88" s="18" t="str">
+      <c r="V88" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10</v>
       </c>
@@ -14389,7 +14388,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N89" s="17" t="str">
+      <c r="N89" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14417,7 +14416,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V89" s="18" t="str">
+      <c r="V89" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10</v>
       </c>
@@ -14494,7 +14493,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N90" s="17" t="str">
+      <c r="N90" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14522,7 +14521,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V90" s="18" t="str">
+      <c r="V90" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -14599,7 +14598,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N91" s="17" t="str">
+      <c r="N91" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6,8</v>
       </c>
@@ -14627,7 +14626,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V91" s="18" t="str">
+      <c r="V91" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -14704,7 +14703,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N92" s="17" t="str">
+      <c r="N92" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6,8</v>
       </c>
@@ -14732,7 +14731,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V92" s="18" t="str">
+      <c r="V92" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -14809,7 +14808,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N93" s="17" t="str">
+      <c r="N93" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14837,7 +14836,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V93" s="18" t="str">
+      <c r="V93" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10</v>
       </c>
@@ -14914,7 +14913,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N94" s="17" t="str">
+      <c r="N94" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -14942,7 +14941,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V94" s="18" t="str">
+      <c r="V94" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -15019,7 +15018,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N95" s="17" t="str">
+      <c r="N95" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6,8</v>
       </c>
@@ -15047,7 +15046,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V95" s="18" t="str">
+      <c r="V95" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -15124,7 +15123,7 @@
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="N96" s="17" t="str">
+      <c r="N96" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6</v>
       </c>
@@ -15152,7 +15151,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V96" s="18" t="str">
+      <c r="V96" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -15229,7 +15228,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N97" s="17" t="str">
+      <c r="N97" s="16" t="str">
         <f t="shared" si="13"/>
         <v>5,6,8</v>
       </c>
@@ -15257,7 +15256,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V97" s="18" t="str">
+      <c r="V97" s="17" t="str">
         <f t="shared" si="16"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -15334,7 +15333,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N98" s="17" t="str">
+      <c r="N98" s="16" t="str">
         <f t="shared" si="13"/>
         <v>6,8</v>
       </c>
@@ -15362,7 +15361,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V98" s="18" t="str">
+      <c r="V98" s="17" t="str">
         <f t="shared" si="16"/>
         <v>6,8,10,12,14</v>
       </c>
@@ -15439,7 +15438,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N99" s="17" t="str">
+      <c r="N99" s="16" t="str">
         <f t="shared" si="13"/>
         <v>6,8</v>
       </c>
@@ -15467,7 +15466,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V99" s="18" t="str">
+      <c r="V99" s="17" t="str">
         <f t="shared" si="16"/>
         <v>6,8,10,12,14</v>
       </c>
@@ -15544,7 +15543,7 @@
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="N100" s="17" t="str">
+      <c r="N100" s="16" t="str">
         <f t="shared" si="13"/>
         <v>6,8</v>
       </c>
@@ -15572,7 +15571,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V100" s="18" t="str">
+      <c r="V100" s="17" t="str">
         <f t="shared" si="16"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -15649,7 +15648,7 @@
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="N101" s="17" t="str">
+      <c r="N101" s="16" t="str">
         <f t="shared" si="13"/>
         <v>8,10</v>
       </c>
@@ -15677,7 +15676,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V101" s="18" t="str">
+      <c r="V101" s="17" t="str">
         <f t="shared" si="16"/>
         <v>8,10,12,14,16,18</v>
       </c>
@@ -15753,7 +15752,7 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="N102" s="17">
+      <c r="N102" s="16">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
@@ -15781,7 +15780,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V102" s="18" t="str">
+      <c r="V102" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -15857,7 +15856,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N103" s="17" t="str">
+      <c r="N103" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -15885,7 +15884,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V103" s="18" t="str">
+      <c r="V103" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -15961,7 +15960,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N104" s="17" t="str">
+      <c r="N104" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -15989,7 +15988,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V104" s="18" t="str">
+      <c r="V104" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -16065,7 +16064,7 @@
         <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
-      <c r="N105" s="17" t="str">
+      <c r="N105" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5</v>
       </c>
@@ -16093,7 +16092,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V105" s="18" t="str">
+      <c r="V105" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -16169,7 +16168,7 @@
         <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
-      <c r="N106" s="17" t="str">
+      <c r="N106" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5</v>
       </c>
@@ -16197,7 +16196,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V106" s="18" t="str">
+      <c r="V106" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -16273,7 +16272,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N107" s="17" t="str">
+      <c r="N107" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -16301,7 +16300,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V107" s="18" t="str">
+      <c r="V107" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -16377,7 +16376,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N108" s="17" t="str">
+      <c r="N108" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -16405,7 +16404,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V108" s="18" t="str">
+      <c r="V108" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -16481,7 +16480,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N109" s="17" t="str">
+      <c r="N109" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -16509,7 +16508,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V109" s="18" t="str">
+      <c r="V109" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -16585,7 +16584,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N110" s="17" t="str">
+      <c r="N110" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -16613,7 +16612,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V110" s="18" t="str">
+      <c r="V110" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -16689,7 +16688,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N111" s="17" t="str">
+      <c r="N111" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3</v>
       </c>
@@ -16717,7 +16716,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V111" s="18" t="str">
+      <c r="V111" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -16793,7 +16792,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N112" s="17" t="str">
+      <c r="N112" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -16821,7 +16820,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V112" s="18" t="str">
+      <c r="V112" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -16898,7 +16897,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N113" s="17" t="str">
+      <c r="N113" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -16926,7 +16925,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V113" s="18" t="str">
+      <c r="V113" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -17003,7 +17002,7 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="N114" s="17" t="str">
+      <c r="N114" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3</v>
       </c>
@@ -17031,7 +17030,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V114" s="18" t="str">
+      <c r="V114" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -17108,7 +17107,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N115" s="17" t="str">
+      <c r="N115" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -17136,7 +17135,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V115" s="18" t="str">
+      <c r="V115" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -17213,7 +17212,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N116" s="17" t="str">
+      <c r="N116" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -17241,7 +17240,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V116" s="18" t="str">
+      <c r="V116" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -17318,7 +17317,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N117" s="17" t="str">
+      <c r="N117" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -17346,7 +17345,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V117" s="18" t="str">
+      <c r="V117" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -17423,7 +17422,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N118" s="17" t="str">
+      <c r="N118" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -17451,7 +17450,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V118" s="18" t="str">
+      <c r="V118" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -17528,7 +17527,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N119" s="17" t="str">
+      <c r="N119" s="16" t="str">
         <f t="shared" si="13"/>
         <v>2.5,3,4</v>
       </c>
@@ -17556,7 +17555,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V119" s="18" t="str">
+      <c r="V119" s="17" t="str">
         <f t="shared" si="16"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -17633,7 +17632,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N120" s="17" t="str">
+      <c r="N120" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -17661,7 +17660,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V120" s="18" t="str">
+      <c r="V120" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -17738,7 +17737,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N121" s="17" t="str">
+      <c r="N121" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -17766,7 +17765,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V121" s="18" t="str">
+      <c r="V121" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -17843,7 +17842,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N122" s="17" t="str">
+      <c r="N122" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -17871,7 +17870,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V122" s="18" t="str">
+      <c r="V122" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -17948,7 +17947,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N123" s="17" t="str">
+      <c r="N123" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -17976,7 +17975,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V123" s="18" t="str">
+      <c r="V123" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -18053,7 +18052,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N124" s="17" t="str">
+      <c r="N124" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -18081,7 +18080,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V124" s="18" t="str">
+      <c r="V124" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -18158,7 +18157,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N125" s="17" t="str">
+      <c r="N125" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -18186,7 +18185,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V125" s="18" t="str">
+      <c r="V125" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -18263,7 +18262,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N126" s="17" t="str">
+      <c r="N126" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4</v>
       </c>
@@ -18291,7 +18290,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V126" s="18" t="str">
+      <c r="V126" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -18368,7 +18367,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N127" s="17" t="str">
+      <c r="N127" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4,5</v>
       </c>
@@ -18396,7 +18395,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V127" s="18" t="str">
+      <c r="V127" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -18473,7 +18472,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N128" s="17" t="str">
+      <c r="N128" s="16" t="str">
         <f t="shared" si="13"/>
         <v>3,4,5</v>
       </c>
@@ -18501,7 +18500,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V128" s="18" t="str">
+      <c r="V128" s="17" t="str">
         <f t="shared" si="16"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -18578,7 +18577,7 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="N129" s="17">
+      <c r="N129" s="16">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -18606,7 +18605,7 @@
         <f t="shared" si="10"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V129" s="18" t="str">
+      <c r="V129" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8</v>
       </c>
@@ -18683,7 +18682,7 @@
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="N130" s="17" t="str">
+      <c r="N130" s="16" t="str">
         <f t="shared" si="13"/>
         <v>4,5</v>
       </c>
@@ -18711,7 +18710,7 @@
         <f t="shared" ref="U130:U193" si="20">"BRANCH_"&amp;"MIN"&amp;L130&amp;"_MAX"&amp;R130</f>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V130" s="18" t="str">
+      <c r="V130" s="17" t="str">
         <f t="shared" si="16"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -18788,7 +18787,7 @@
         <f t="shared" ref="M131:M194" si="22">R131</f>
         <v>5</v>
       </c>
-      <c r="N131" s="17" t="str">
+      <c r="N131" s="16" t="str">
         <f t="shared" ref="N131:N194" si="23">W131</f>
         <v>4,5</v>
       </c>
@@ -18816,7 +18815,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V131" s="18" t="str">
+      <c r="V131" s="17" t="str">
         <f t="shared" ref="V131:V194" si="25">Z131</f>
         <v>4,5,6,8,10</v>
       </c>
@@ -18893,7 +18892,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N132" s="17" t="str">
+      <c r="N132" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -18921,7 +18920,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V132" s="18" t="str">
+      <c r="V132" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -18998,7 +18997,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N133" s="17" t="str">
+      <c r="N133" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -19026,7 +19025,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V133" s="18" t="str">
+      <c r="V133" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -19103,7 +19102,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N134" s="17" t="str">
+      <c r="N134" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -19131,7 +19130,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V134" s="18" t="str">
+      <c r="V134" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -19208,7 +19207,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N135" s="17" t="str">
+      <c r="N135" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -19236,7 +19235,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V135" s="18" t="str">
+      <c r="V135" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6,8,10,12</v>
       </c>
@@ -19313,7 +19312,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N136" s="17" t="str">
+      <c r="N136" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -19341,7 +19340,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V136" s="18" t="str">
+      <c r="V136" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6,8,10,12</v>
       </c>
@@ -19418,7 +19417,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N137" s="17" t="str">
+      <c r="N137" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -19446,7 +19445,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V137" s="18" t="str">
+      <c r="V137" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -19523,7 +19522,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N138" s="17" t="str">
+      <c r="N138" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -19551,7 +19550,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V138" s="18" t="str">
+      <c r="V138" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -19628,7 +19627,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N139" s="17" t="str">
+      <c r="N139" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -19656,7 +19655,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V139" s="18" t="str">
+      <c r="V139" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -19733,7 +19732,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N140" s="17" t="str">
+      <c r="N140" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -19761,7 +19760,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V140" s="18" t="str">
+      <c r="V140" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -19838,7 +19837,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N141" s="17" t="str">
+      <c r="N141" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -19866,7 +19865,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V141" s="18" t="str">
+      <c r="V141" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -19943,7 +19942,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N142" s="17" t="str">
+      <c r="N142" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -19971,7 +19970,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V142" s="18" t="str">
+      <c r="V142" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -20048,7 +20047,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N143" s="17" t="str">
+      <c r="N143" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -20076,7 +20075,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V143" s="18" t="str">
+      <c r="V143" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -20153,7 +20152,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N144" s="17" t="str">
+      <c r="N144" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -20181,7 +20180,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V144" s="18" t="str">
+      <c r="V144" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -20258,7 +20257,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N145" s="17" t="str">
+      <c r="N145" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -20286,7 +20285,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V145" s="18" t="str">
+      <c r="V145" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -20363,7 +20362,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N146" s="17" t="str">
+      <c r="N146" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -20391,7 +20390,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V146" s="18" t="str">
+      <c r="V146" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -20468,7 +20467,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N147" s="17" t="str">
+      <c r="N147" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -20496,7 +20495,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V147" s="18" t="str">
+      <c r="V147" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -20573,7 +20572,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N148" s="17" t="str">
+      <c r="N148" s="16" t="str">
         <f t="shared" si="23"/>
         <v>6,8</v>
       </c>
@@ -20601,7 +20600,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V148" s="18" t="str">
+      <c r="V148" s="17" t="str">
         <f t="shared" si="25"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -20678,7 +20677,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N149" s="17" t="str">
+      <c r="N149" s="16" t="str">
         <f t="shared" si="23"/>
         <v>6,8</v>
       </c>
@@ -20706,7 +20705,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V149" s="18" t="str">
+      <c r="V149" s="17" t="str">
         <f t="shared" si="25"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -20783,7 +20782,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N150" s="17" t="str">
+      <c r="N150" s="16" t="str">
         <f t="shared" si="23"/>
         <v>6,8</v>
       </c>
@@ -20811,7 +20810,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V150" s="18" t="str">
+      <c r="V150" s="17" t="str">
         <f t="shared" si="25"/>
         <v>6,8,10,12,14,16,18</v>
       </c>
@@ -20888,7 +20887,7 @@
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="N151" s="17" t="str">
+      <c r="N151" s="16" t="str">
         <f t="shared" si="23"/>
         <v>8,10</v>
       </c>
@@ -20916,7 +20915,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V151" s="18" t="str">
+      <c r="V151" s="17" t="str">
         <f t="shared" si="25"/>
         <v>8,10,12,14,16,18</v>
       </c>
@@ -20992,7 +20991,7 @@
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="N152" s="17">
+      <c r="N152" s="16">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
@@ -21020,7 +21019,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V152" s="18">
+      <c r="V152" s="17">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
@@ -21117,7 +21116,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N153" s="17" t="str">
+      <c r="N153" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -21145,7 +21144,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V153" s="18" t="str">
+      <c r="V153" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -21242,7 +21241,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N154" s="17" t="str">
+      <c r="N154" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -21270,7 +21269,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V154" s="18" t="str">
+      <c r="V154" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -21367,7 +21366,7 @@
         <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
-      <c r="N155" s="17" t="str">
+      <c r="N155" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5</v>
       </c>
@@ -21395,7 +21394,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V155" s="18" t="str">
+      <c r="V155" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5</v>
       </c>
@@ -21492,7 +21491,7 @@
         <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
-      <c r="N156" s="17" t="str">
+      <c r="N156" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5</v>
       </c>
@@ -21520,7 +21519,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V156" s="18" t="str">
+      <c r="V156" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5</v>
       </c>
@@ -21617,7 +21616,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N157" s="17" t="str">
+      <c r="N157" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -21645,7 +21644,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V157" s="18" t="str">
+      <c r="V157" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -21742,7 +21741,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N158" s="17" t="str">
+      <c r="N158" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -21770,7 +21769,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V158" s="18" t="str">
+      <c r="V158" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -21867,7 +21866,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N159" s="17" t="str">
+      <c r="N159" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -21895,7 +21894,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V159" s="18" t="str">
+      <c r="V159" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -21992,7 +21991,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N160" s="17" t="str">
+      <c r="N160" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -22020,7 +22019,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V160" s="18" t="str">
+      <c r="V160" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -22117,7 +22116,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N161" s="17" t="str">
+      <c r="N161" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3</v>
       </c>
@@ -22145,7 +22144,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V161" s="18" t="str">
+      <c r="V161" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3</v>
       </c>
@@ -22242,7 +22241,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N162" s="17" t="str">
+      <c r="N162" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -22270,7 +22269,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V162" s="18" t="str">
+      <c r="V162" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -22368,7 +22367,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N163" s="17" t="str">
+      <c r="N163" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -22396,7 +22395,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V163" s="18" t="str">
+      <c r="V163" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -22494,7 +22493,7 @@
         <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="N164" s="17" t="str">
+      <c r="N164" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3</v>
       </c>
@@ -22522,7 +22521,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V164" s="18" t="str">
+      <c r="V164" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3</v>
       </c>
@@ -22620,7 +22619,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N165" s="17" t="str">
+      <c r="N165" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -22648,7 +22647,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V165" s="18" t="str">
+      <c r="V165" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -22740,7 +22739,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N166" s="17" t="str">
+      <c r="N166" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -22768,7 +22767,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V166" s="18" t="str">
+      <c r="V166" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -22860,7 +22859,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N167" s="17" t="str">
+      <c r="N167" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -22888,7 +22887,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V167" s="18" t="str">
+      <c r="V167" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -22980,7 +22979,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N168" s="17" t="str">
+      <c r="N168" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -23008,7 +23007,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V168" s="18" t="str">
+      <c r="V168" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -23100,7 +23099,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N169" s="17" t="str">
+      <c r="N169" s="16" t="str">
         <f t="shared" si="23"/>
         <v>2.5,3,4</v>
       </c>
@@ -23128,7 +23127,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V169" s="18" t="str">
+      <c r="V169" s="17" t="str">
         <f t="shared" si="25"/>
         <v>2.5,3,4</v>
       </c>
@@ -23220,7 +23219,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N170" s="17" t="str">
+      <c r="N170" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23248,7 +23247,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V170" s="18" t="str">
+      <c r="V170" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23340,7 +23339,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N171" s="17" t="str">
+      <c r="N171" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23368,7 +23367,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V171" s="18" t="str">
+      <c r="V171" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23460,7 +23459,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N172" s="17" t="str">
+      <c r="N172" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23488,7 +23487,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V172" s="18" t="str">
+      <c r="V172" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23580,7 +23579,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N173" s="17" t="str">
+      <c r="N173" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23608,7 +23607,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V173" s="18" t="str">
+      <c r="V173" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23700,7 +23699,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N174" s="17" t="str">
+      <c r="N174" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23728,7 +23727,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V174" s="18" t="str">
+      <c r="V174" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23820,7 +23819,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N175" s="17" t="str">
+      <c r="N175" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23848,7 +23847,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V175" s="18" t="str">
+      <c r="V175" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -23940,7 +23939,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N176" s="17" t="str">
+      <c r="N176" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4</v>
       </c>
@@ -23968,7 +23967,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V176" s="18" t="str">
+      <c r="V176" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4</v>
       </c>
@@ -24060,7 +24059,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N177" s="17" t="str">
+      <c r="N177" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4,5</v>
       </c>
@@ -24088,7 +24087,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V177" s="18" t="str">
+      <c r="V177" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4,5</v>
       </c>
@@ -24180,7 +24179,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N178" s="17" t="str">
+      <c r="N178" s="16" t="str">
         <f t="shared" si="23"/>
         <v>3,4,5</v>
       </c>
@@ -24208,7 +24207,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V178" s="18" t="str">
+      <c r="V178" s="17" t="str">
         <f t="shared" si="25"/>
         <v>3,4,5</v>
       </c>
@@ -24300,7 +24299,7 @@
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="N179" s="17">
+      <c r="N179" s="16">
         <f t="shared" si="23"/>
         <v>4</v>
       </c>
@@ -24328,7 +24327,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V179" s="18">
+      <c r="V179" s="17">
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
@@ -24420,7 +24419,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N180" s="17" t="str">
+      <c r="N180" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -24448,7 +24447,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V180" s="18" t="str">
+      <c r="V180" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5</v>
       </c>
@@ -24540,7 +24539,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N181" s="17" t="str">
+      <c r="N181" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -24568,7 +24567,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V181" s="18" t="str">
+      <c r="V181" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5</v>
       </c>
@@ -24660,7 +24659,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N182" s="17" t="str">
+      <c r="N182" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -24688,7 +24687,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V182" s="18" t="str">
+      <c r="V182" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5</v>
       </c>
@@ -24780,7 +24779,7 @@
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N183" s="17" t="str">
+      <c r="N183" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5</v>
       </c>
@@ -24808,7 +24807,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V183" s="18" t="str">
+      <c r="V183" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5</v>
       </c>
@@ -24900,7 +24899,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N184" s="17" t="str">
+      <c r="N184" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -24928,7 +24927,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V184" s="18" t="str">
+      <c r="V184" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6</v>
       </c>
@@ -25020,7 +25019,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N185" s="17" t="str">
+      <c r="N185" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -25048,7 +25047,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V185" s="18" t="str">
+      <c r="V185" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6</v>
       </c>
@@ -25140,7 +25139,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N186" s="17" t="str">
+      <c r="N186" s="16" t="str">
         <f t="shared" si="23"/>
         <v>4,5,6</v>
       </c>
@@ -25168,7 +25167,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V186" s="18" t="str">
+      <c r="V186" s="17" t="str">
         <f t="shared" si="25"/>
         <v>4,5,6</v>
       </c>
@@ -25260,7 +25259,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N187" s="17" t="str">
+      <c r="N187" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -25288,7 +25287,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V187" s="18" t="str">
+      <c r="V187" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -25380,7 +25379,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N188" s="17" t="str">
+      <c r="N188" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -25408,7 +25407,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V188" s="18" t="str">
+      <c r="V188" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -25500,7 +25499,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N189" s="17" t="str">
+      <c r="N189" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -25528,7 +25527,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V189" s="18" t="str">
+      <c r="V189" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -25620,7 +25619,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N190" s="17" t="str">
+      <c r="N190" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -25648,7 +25647,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V190" s="18" t="str">
+      <c r="V190" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -25740,7 +25739,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N191" s="17" t="str">
+      <c r="N191" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -25768,7 +25767,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V191" s="18" t="str">
+      <c r="V191" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8</v>
       </c>
@@ -25860,7 +25859,7 @@
         <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N192" s="17" t="str">
+      <c r="N192" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6,8</v>
       </c>
@@ -25888,7 +25887,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V192" s="18" t="str">
+      <c r="V192" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6,8</v>
       </c>
@@ -25980,7 +25979,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N193" s="17" t="str">
+      <c r="N193" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -26008,7 +26007,7 @@
         <f t="shared" si="20"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V193" s="18" t="str">
+      <c r="V193" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -26100,7 +26099,7 @@
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N194" s="17" t="str">
+      <c r="N194" s="16" t="str">
         <f t="shared" si="23"/>
         <v>5,6</v>
       </c>
@@ -26128,7 +26127,7 @@
         <f t="shared" ref="U194:U257" si="29">"BRANCH_"&amp;"MIN"&amp;L194&amp;"_MAX"&amp;R194</f>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V194" s="18" t="str">
+      <c r="V194" s="17" t="str">
         <f t="shared" si="25"/>
         <v>5,6</v>
       </c>
@@ -26220,7 +26219,7 @@
         <f t="shared" ref="M195:M258" si="31">R195</f>
         <v>8</v>
       </c>
-      <c r="N195" s="17" t="str">
+      <c r="N195" s="16" t="str">
         <f t="shared" ref="N195:N258" si="32">W195</f>
         <v>5,6,8</v>
       </c>
@@ -26248,7 +26247,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V195" s="18" t="str">
+      <c r="V195" s="17" t="str">
         <f t="shared" ref="V195:V258" si="34">Z195</f>
         <v>5,6,8</v>
       </c>
@@ -26340,7 +26339,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N196" s="17" t="str">
+      <c r="N196" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -26368,7 +26367,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V196" s="18" t="str">
+      <c r="V196" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6</v>
       </c>
@@ -26460,7 +26459,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N197" s="17" t="str">
+      <c r="N197" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6,8</v>
       </c>
@@ -26488,7 +26487,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V197" s="18" t="str">
+      <c r="V197" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8</v>
       </c>
@@ -26580,7 +26579,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N198" s="17" t="str">
+      <c r="N198" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -26608,7 +26607,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V198" s="18" t="str">
+      <c r="V198" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8</v>
       </c>
@@ -26700,7 +26699,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N199" s="17" t="str">
+      <c r="N199" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -26728,7 +26727,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V199" s="18" t="str">
+      <c r="V199" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8</v>
       </c>
@@ -26820,7 +26819,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N200" s="17" t="str">
+      <c r="N200" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -26848,7 +26847,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V200" s="18" t="str">
+      <c r="V200" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8</v>
       </c>
@@ -26940,7 +26939,7 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="N201" s="17" t="str">
+      <c r="N201" s="16" t="str">
         <f t="shared" si="32"/>
         <v>8,10</v>
       </c>
@@ -26968,7 +26967,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V201" s="18" t="str">
+      <c r="V201" s="17" t="str">
         <f t="shared" si="34"/>
         <v>8,10</v>
       </c>
@@ -27059,7 +27058,7 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="N202" s="17">
+      <c r="N202" s="16">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
@@ -27087,7 +27086,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V202" s="18" t="str">
+      <c r="V202" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3</v>
       </c>
@@ -27163,7 +27162,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N203" s="17" t="str">
+      <c r="N203" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27191,7 +27190,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V203" s="18" t="str">
+      <c r="V203" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27267,7 +27266,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N204" s="17" t="str">
+      <c r="N204" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27295,7 +27294,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V204" s="18" t="str">
+      <c r="V204" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27371,7 +27370,7 @@
         <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
-      <c r="N205" s="17" t="str">
+      <c r="N205" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5</v>
       </c>
@@ -27399,7 +27398,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V205" s="18" t="str">
+      <c r="V205" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27475,7 +27474,7 @@
         <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
-      <c r="N206" s="17" t="str">
+      <c r="N206" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5</v>
       </c>
@@ -27503,7 +27502,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V206" s="18" t="str">
+      <c r="V206" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27579,7 +27578,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N207" s="17" t="str">
+      <c r="N207" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27607,7 +27606,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V207" s="18" t="str">
+      <c r="V207" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27683,7 +27682,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N208" s="17" t="str">
+      <c r="N208" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27711,7 +27710,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V208" s="18" t="str">
+      <c r="V208" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27787,7 +27786,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N209" s="17" t="str">
+      <c r="N209" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27815,7 +27814,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V209" s="18" t="str">
+      <c r="V209" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27891,7 +27890,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N210" s="17" t="str">
+      <c r="N210" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -27919,7 +27918,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V210" s="18" t="str">
+      <c r="V210" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -27995,7 +27994,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N211" s="17" t="str">
+      <c r="N211" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -28023,7 +28022,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V211" s="18" t="str">
+      <c r="V211" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -28099,7 +28098,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N212" s="17" t="str">
+      <c r="N212" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -28127,7 +28126,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V212" s="18" t="str">
+      <c r="V212" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -28204,7 +28203,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N213" s="17" t="str">
+      <c r="N213" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28232,7 +28231,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V213" s="18" t="str">
+      <c r="V213" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -28309,7 +28308,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N214" s="17" t="str">
+      <c r="N214" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3</v>
       </c>
@@ -28337,7 +28336,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V214" s="18" t="str">
+      <c r="V214" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4</v>
       </c>
@@ -28414,7 +28413,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N215" s="17" t="str">
+      <c r="N215" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28442,7 +28441,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V215" s="18" t="str">
+      <c r="V215" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -28519,7 +28518,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N216" s="17" t="str">
+      <c r="N216" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28547,7 +28546,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V216" s="18" t="str">
+      <c r="V216" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -28624,7 +28623,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N217" s="17" t="str">
+      <c r="N217" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28652,7 +28651,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V217" s="18" t="str">
+      <c r="V217" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -28729,7 +28728,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N218" s="17" t="str">
+      <c r="N218" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28757,7 +28756,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V218" s="18" t="str">
+      <c r="V218" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -28834,7 +28833,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N219" s="17" t="str">
+      <c r="N219" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2.5,3,4</v>
       </c>
@@ -28862,7 +28861,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V219" s="18" t="str">
+      <c r="V219" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -28939,7 +28938,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N220" s="17" t="str">
+      <c r="N220" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -28967,7 +28966,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V220" s="18" t="str">
+      <c r="V220" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5</v>
       </c>
@@ -29044,7 +29043,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N221" s="17" t="str">
+      <c r="N221" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29072,7 +29071,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V221" s="18" t="str">
+      <c r="V221" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5</v>
       </c>
@@ -29149,7 +29148,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N222" s="17" t="str">
+      <c r="N222" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29177,7 +29176,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V222" s="18" t="str">
+      <c r="V222" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5</v>
       </c>
@@ -29254,7 +29253,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N223" s="17" t="str">
+      <c r="N223" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29282,7 +29281,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V223" s="18" t="str">
+      <c r="V223" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6</v>
       </c>
@@ -29359,7 +29358,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N224" s="17" t="str">
+      <c r="N224" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29387,7 +29386,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V224" s="18" t="str">
+      <c r="V224" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6</v>
       </c>
@@ -29464,7 +29463,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N225" s="17" t="str">
+      <c r="N225" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29492,7 +29491,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V225" s="18" t="str">
+      <c r="V225" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6</v>
       </c>
@@ -29569,7 +29568,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N226" s="17" t="str">
+      <c r="N226" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4</v>
       </c>
@@ -29597,7 +29596,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V226" s="18" t="str">
+      <c r="V226" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6</v>
       </c>
@@ -29674,7 +29673,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N227" s="17" t="str">
+      <c r="N227" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4,5</v>
       </c>
@@ -29702,7 +29701,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V227" s="18" t="str">
+      <c r="V227" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6</v>
       </c>
@@ -29779,7 +29778,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N228" s="17" t="str">
+      <c r="N228" s="16" t="str">
         <f t="shared" si="32"/>
         <v>3,4,5</v>
       </c>
@@ -29807,7 +29806,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V228" s="18" t="str">
+      <c r="V228" s="17" t="str">
         <f t="shared" si="34"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -29884,7 +29883,7 @@
         <f t="shared" si="31"/>
         <v>4</v>
       </c>
-      <c r="N229" s="17">
+      <c r="N229" s="16">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
@@ -29912,7 +29911,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V229" s="18" t="str">
+      <c r="V229" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6</v>
       </c>
@@ -29989,7 +29988,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N230" s="17" t="str">
+      <c r="N230" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5</v>
       </c>
@@ -30017,7 +30016,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V230" s="18" t="str">
+      <c r="V230" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6</v>
       </c>
@@ -30094,7 +30093,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N231" s="17" t="str">
+      <c r="N231" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5</v>
       </c>
@@ -30122,7 +30121,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V231" s="18" t="str">
+      <c r="V231" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30199,7 +30198,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N232" s="17" t="str">
+      <c r="N232" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5</v>
       </c>
@@ -30227,7 +30226,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V232" s="18" t="str">
+      <c r="V232" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30304,7 +30303,7 @@
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="N233" s="17" t="str">
+      <c r="N233" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5</v>
       </c>
@@ -30332,7 +30331,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V233" s="18" t="str">
+      <c r="V233" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30409,7 +30408,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N234" s="17" t="str">
+      <c r="N234" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5,6</v>
       </c>
@@ -30437,7 +30436,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V234" s="18" t="str">
+      <c r="V234" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30514,7 +30513,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N235" s="17" t="str">
+      <c r="N235" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5,6</v>
       </c>
@@ -30542,7 +30541,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V235" s="18" t="str">
+      <c r="V235" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30619,7 +30618,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N236" s="17" t="str">
+      <c r="N236" s="16" t="str">
         <f t="shared" si="32"/>
         <v>4,5,6</v>
       </c>
@@ -30647,7 +30646,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V236" s="18" t="str">
+      <c r="V236" s="17" t="str">
         <f t="shared" si="34"/>
         <v>4,5,6,8</v>
       </c>
@@ -30724,7 +30723,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N237" s="17" t="str">
+      <c r="N237" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -30752,7 +30751,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V237" s="18" t="str">
+      <c r="V237" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8</v>
       </c>
@@ -30829,7 +30828,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N238" s="17" t="str">
+      <c r="N238" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -30857,7 +30856,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V238" s="18" t="str">
+      <c r="V238" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8</v>
       </c>
@@ -30934,7 +30933,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N239" s="17" t="str">
+      <c r="N239" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -30962,7 +30961,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V239" s="18" t="str">
+      <c r="V239" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8</v>
       </c>
@@ -31039,7 +31038,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N240" s="17" t="str">
+      <c r="N240" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -31067,7 +31066,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V240" s="18" t="str">
+      <c r="V240" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31144,7 +31143,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N241" s="17" t="str">
+      <c r="N241" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6,8</v>
       </c>
@@ -31172,7 +31171,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V241" s="18" t="str">
+      <c r="V241" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31249,7 +31248,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N242" s="17" t="str">
+      <c r="N242" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6,8</v>
       </c>
@@ -31277,7 +31276,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V242" s="18" t="str">
+      <c r="V242" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31354,7 +31353,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N243" s="17" t="str">
+      <c r="N243" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -31382,7 +31381,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V243" s="18" t="str">
+      <c r="V243" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8</v>
       </c>
@@ -31459,7 +31458,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N244" s="17" t="str">
+      <c r="N244" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -31487,7 +31486,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V244" s="18" t="str">
+      <c r="V244" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31564,7 +31563,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N245" s="17" t="str">
+      <c r="N245" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6,8</v>
       </c>
@@ -31592,7 +31591,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V245" s="18" t="str">
+      <c r="V245" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31669,7 +31668,7 @@
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="N246" s="17" t="str">
+      <c r="N246" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6</v>
       </c>
@@ -31697,7 +31696,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V246" s="18" t="str">
+      <c r="V246" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31774,7 +31773,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N247" s="17" t="str">
+      <c r="N247" s="16" t="str">
         <f t="shared" si="32"/>
         <v>5,6,8</v>
       </c>
@@ -31802,7 +31801,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V247" s="18" t="str">
+      <c r="V247" s="17" t="str">
         <f t="shared" si="34"/>
         <v>5,6,8,10</v>
       </c>
@@ -31879,7 +31878,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N248" s="17" t="str">
+      <c r="N248" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -31907,7 +31906,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V248" s="18" t="str">
+      <c r="V248" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8,10</v>
       </c>
@@ -31984,7 +31983,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N249" s="17" t="str">
+      <c r="N249" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -32012,7 +32011,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V249" s="18" t="str">
+      <c r="V249" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8,10,12</v>
       </c>
@@ -32089,7 +32088,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="N250" s="17" t="str">
+      <c r="N250" s="16" t="str">
         <f t="shared" si="32"/>
         <v>6,8</v>
       </c>
@@ -32117,7 +32116,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V250" s="18" t="str">
+      <c r="V250" s="17" t="str">
         <f t="shared" si="34"/>
         <v>6,8,10,12</v>
       </c>
@@ -32194,7 +32193,7 @@
         <f t="shared" si="31"/>
         <v>10</v>
       </c>
-      <c r="N251" s="17" t="str">
+      <c r="N251" s="16" t="str">
         <f t="shared" si="32"/>
         <v>8,10</v>
       </c>
@@ -32222,7 +32221,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V251" s="18" t="str">
+      <c r="V251" s="17" t="str">
         <f t="shared" si="34"/>
         <v>8,10,12,14</v>
       </c>
@@ -32298,7 +32297,7 @@
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="N252" s="17">
+      <c r="N252" s="16">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
@@ -32326,7 +32325,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V252" s="18" t="str">
+      <c r="V252" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -32402,7 +32401,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N253" s="17" t="str">
+      <c r="N253" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -32430,7 +32429,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V253" s="18" t="str">
+      <c r="V253" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -32506,7 +32505,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N254" s="17" t="str">
+      <c r="N254" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -32534,7 +32533,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V254" s="18" t="str">
+      <c r="V254" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -32610,7 +32609,7 @@
         <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
-      <c r="N255" s="17" t="str">
+      <c r="N255" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5</v>
       </c>
@@ -32638,7 +32637,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V255" s="18" t="str">
+      <c r="V255" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -32714,7 +32713,7 @@
         <f t="shared" si="31"/>
         <v>2.5</v>
       </c>
-      <c r="N256" s="17" t="str">
+      <c r="N256" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5</v>
       </c>
@@ -32742,7 +32741,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V256" s="18" t="str">
+      <c r="V256" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -32818,7 +32817,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N257" s="17" t="str">
+      <c r="N257" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -32846,7 +32845,7 @@
         <f t="shared" si="29"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V257" s="18" t="str">
+      <c r="V257" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -32922,7 +32921,7 @@
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="N258" s="17" t="str">
+      <c r="N258" s="16" t="str">
         <f t="shared" si="32"/>
         <v>2,2.5,3</v>
       </c>
@@ -32950,7 +32949,7 @@
         <f t="shared" ref="U258:U321" si="38">"BRANCH_"&amp;"MIN"&amp;L258&amp;"_MAX"&amp;R258</f>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V258" s="18" t="str">
+      <c r="V258" s="17" t="str">
         <f t="shared" si="34"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -33026,7 +33025,7 @@
         <f t="shared" ref="M259:M322" si="40">R259</f>
         <v>3</v>
       </c>
-      <c r="N259" s="17" t="str">
+      <c r="N259" s="16" t="str">
         <f t="shared" ref="N259:N322" si="41">W259</f>
         <v>2,2.5,3</v>
       </c>
@@ -33054,7 +33053,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V259" s="18" t="str">
+      <c r="V259" s="17" t="str">
         <f t="shared" ref="V259:V322" si="43">Z259</f>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -33130,7 +33129,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N260" s="17" t="str">
+      <c r="N260" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -33158,7 +33157,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V260" s="18" t="str">
+      <c r="V260" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -33234,7 +33233,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N261" s="17" t="str">
+      <c r="N261" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -33262,7 +33261,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V261" s="18" t="str">
+      <c r="V261" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -33338,7 +33337,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N262" s="17" t="str">
+      <c r="N262" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -33366,7 +33365,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V262" s="18" t="str">
+      <c r="V262" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -33443,7 +33442,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N263" s="17" t="str">
+      <c r="N263" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -33471,7 +33470,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V263" s="18" t="str">
+      <c r="V263" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -33548,7 +33547,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N264" s="17" t="str">
+      <c r="N264" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3</v>
       </c>
@@ -33576,7 +33575,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V264" s="18" t="str">
+      <c r="V264" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5</v>
       </c>
@@ -33653,7 +33652,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N265" s="17" t="str">
+      <c r="N265" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -33681,7 +33680,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V265" s="18" t="str">
+      <c r="V265" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -33758,7 +33757,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N266" s="17" t="str">
+      <c r="N266" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -33786,7 +33785,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V266" s="18" t="str">
+      <c r="V266" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -33863,7 +33862,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N267" s="17" t="str">
+      <c r="N267" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -33891,7 +33890,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V267" s="18" t="str">
+      <c r="V267" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -33968,7 +33967,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N268" s="17" t="str">
+      <c r="N268" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -33996,7 +33995,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V268" s="18" t="str">
+      <c r="V268" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -34073,7 +34072,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N269" s="17" t="str">
+      <c r="N269" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -34101,7 +34100,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V269" s="18" t="str">
+      <c r="V269" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -34178,7 +34177,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N270" s="17" t="str">
+      <c r="N270" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34206,7 +34205,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V270" s="18" t="str">
+      <c r="V270" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6</v>
       </c>
@@ -34283,7 +34282,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N271" s="17" t="str">
+      <c r="N271" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34311,7 +34310,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V271" s="18" t="str">
+      <c r="V271" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6</v>
       </c>
@@ -34388,7 +34387,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N272" s="17" t="str">
+      <c r="N272" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34416,7 +34415,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V272" s="18" t="str">
+      <c r="V272" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6</v>
       </c>
@@ -34493,7 +34492,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N273" s="17" t="str">
+      <c r="N273" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34521,7 +34520,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V273" s="18" t="str">
+      <c r="V273" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -34598,7 +34597,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N274" s="17" t="str">
+      <c r="N274" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34626,7 +34625,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V274" s="18" t="str">
+      <c r="V274" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -34703,7 +34702,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N275" s="17" t="str">
+      <c r="N275" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34731,7 +34730,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V275" s="18" t="str">
+      <c r="V275" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -34808,7 +34807,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N276" s="17" t="str">
+      <c r="N276" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -34836,7 +34835,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V276" s="18" t="str">
+      <c r="V276" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -34913,7 +34912,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N277" s="17" t="str">
+      <c r="N277" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4,5</v>
       </c>
@@ -34941,7 +34940,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V277" s="18" t="str">
+      <c r="V277" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -35018,7 +35017,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N278" s="17" t="str">
+      <c r="N278" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4,5</v>
       </c>
@@ -35046,7 +35045,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V278" s="18" t="str">
+      <c r="V278" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -35123,7 +35122,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N279" s="17">
+      <c r="N279" s="16">
         <f t="shared" si="41"/>
         <v>4</v>
       </c>
@@ -35151,7 +35150,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V279" s="18" t="str">
+      <c r="V279" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8</v>
       </c>
@@ -35228,7 +35227,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N280" s="17" t="str">
+      <c r="N280" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5</v>
       </c>
@@ -35256,7 +35255,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V280" s="18" t="str">
+      <c r="V280" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8</v>
       </c>
@@ -35333,7 +35332,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N281" s="17" t="str">
+      <c r="N281" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5</v>
       </c>
@@ -35361,7 +35360,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V281" s="18" t="str">
+      <c r="V281" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8</v>
       </c>
@@ -35438,7 +35437,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N282" s="17" t="str">
+      <c r="N282" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5</v>
       </c>
@@ -35466,7 +35465,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V282" s="18" t="str">
+      <c r="V282" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8</v>
       </c>
@@ -35543,7 +35542,7 @@
         <f t="shared" si="40"/>
         <v>5</v>
       </c>
-      <c r="N283" s="17" t="str">
+      <c r="N283" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5</v>
       </c>
@@ -35571,7 +35570,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V283" s="18" t="str">
+      <c r="V283" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -35648,7 +35647,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N284" s="17" t="str">
+      <c r="N284" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5,6</v>
       </c>
@@ -35676,7 +35675,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V284" s="18" t="str">
+      <c r="V284" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -35753,7 +35752,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N285" s="17" t="str">
+      <c r="N285" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5,6</v>
       </c>
@@ -35781,7 +35780,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V285" s="18" t="str">
+      <c r="V285" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -35858,7 +35857,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N286" s="17" t="str">
+      <c r="N286" s="16" t="str">
         <f t="shared" si="41"/>
         <v>4,5,6</v>
       </c>
@@ -35886,7 +35885,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V286" s="18" t="str">
+      <c r="V286" s="17" t="str">
         <f t="shared" si="43"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -35963,7 +35962,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N287" s="17" t="str">
+      <c r="N287" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -35991,7 +35990,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V287" s="18" t="str">
+      <c r="V287" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10</v>
       </c>
@@ -36068,7 +36067,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N288" s="17" t="str">
+      <c r="N288" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36096,7 +36095,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V288" s="18" t="str">
+      <c r="V288" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10</v>
       </c>
@@ -36173,7 +36172,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N289" s="17" t="str">
+      <c r="N289" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36201,7 +36200,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V289" s="18" t="str">
+      <c r="V289" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10</v>
       </c>
@@ -36278,7 +36277,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N290" s="17" t="str">
+      <c r="N290" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36306,7 +36305,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V290" s="18" t="str">
+      <c r="V290" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -36383,7 +36382,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N291" s="17" t="str">
+      <c r="N291" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6,8</v>
       </c>
@@ -36411,7 +36410,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V291" s="18" t="str">
+      <c r="V291" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -36488,7 +36487,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N292" s="17" t="str">
+      <c r="N292" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6,8</v>
       </c>
@@ -36516,7 +36515,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V292" s="18" t="str">
+      <c r="V292" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -36593,7 +36592,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N293" s="17" t="str">
+      <c r="N293" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36621,7 +36620,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V293" s="18" t="str">
+      <c r="V293" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10</v>
       </c>
@@ -36698,7 +36697,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N294" s="17" t="str">
+      <c r="N294" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36726,7 +36725,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V294" s="18" t="str">
+      <c r="V294" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -36803,7 +36802,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N295" s="17" t="str">
+      <c r="N295" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6,8</v>
       </c>
@@ -36831,7 +36830,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V295" s="18" t="str">
+      <c r="V295" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -36908,7 +36907,7 @@
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
-      <c r="N296" s="17" t="str">
+      <c r="N296" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6</v>
       </c>
@@ -36936,7 +36935,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V296" s="18" t="str">
+      <c r="V296" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -37013,7 +37012,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N297" s="17" t="str">
+      <c r="N297" s="16" t="str">
         <f t="shared" si="41"/>
         <v>5,6,8</v>
       </c>
@@ -37041,7 +37040,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V297" s="18" t="str">
+      <c r="V297" s="17" t="str">
         <f t="shared" si="43"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -37118,7 +37117,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N298" s="17" t="str">
+      <c r="N298" s="16" t="str">
         <f t="shared" si="41"/>
         <v>6,8</v>
       </c>
@@ -37146,7 +37145,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V298" s="18" t="str">
+      <c r="V298" s="17" t="str">
         <f t="shared" si="43"/>
         <v>6,8,10,12,14</v>
       </c>
@@ -37223,7 +37222,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N299" s="17" t="str">
+      <c r="N299" s="16" t="str">
         <f t="shared" si="41"/>
         <v>6,8</v>
       </c>
@@ -37251,7 +37250,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V299" s="18" t="str">
+      <c r="V299" s="17" t="str">
         <f t="shared" si="43"/>
         <v>6,8,10,12,14</v>
       </c>
@@ -37328,7 +37327,7 @@
         <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="N300" s="17" t="str">
+      <c r="N300" s="16" t="str">
         <f t="shared" si="41"/>
         <v>6,8</v>
       </c>
@@ -37356,7 +37355,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V300" s="18" t="str">
+      <c r="V300" s="17" t="str">
         <f t="shared" si="43"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -37433,7 +37432,7 @@
         <f t="shared" si="40"/>
         <v>10</v>
       </c>
-      <c r="N301" s="17" t="str">
+      <c r="N301" s="16" t="str">
         <f t="shared" si="41"/>
         <v>8,10</v>
       </c>
@@ -37461,7 +37460,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V301" s="18" t="str">
+      <c r="V301" s="17" t="str">
         <f t="shared" si="43"/>
         <v>8,10,12,14,16,18</v>
       </c>
@@ -37537,7 +37536,7 @@
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="N302" s="17">
+      <c r="N302" s="16">
         <f t="shared" si="41"/>
         <v>2</v>
       </c>
@@ -37565,7 +37564,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX2</v>
       </c>
-      <c r="V302" s="18" t="str">
+      <c r="V302" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -37641,7 +37640,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N303" s="17" t="str">
+      <c r="N303" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -37669,7 +37668,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V303" s="18" t="str">
+      <c r="V303" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -37745,7 +37744,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N304" s="17" t="str">
+      <c r="N304" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -37773,7 +37772,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V304" s="18" t="str">
+      <c r="V304" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -37849,7 +37848,7 @@
         <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
-      <c r="N305" s="17" t="str">
+      <c r="N305" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5</v>
       </c>
@@ -37877,7 +37876,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V305" s="18" t="str">
+      <c r="V305" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -37953,7 +37952,7 @@
         <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
-      <c r="N306" s="17" t="str">
+      <c r="N306" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5</v>
       </c>
@@ -37981,7 +37980,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX2.5</v>
       </c>
-      <c r="V306" s="18" t="str">
+      <c r="V306" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -38057,7 +38056,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N307" s="17" t="str">
+      <c r="N307" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -38085,7 +38084,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V307" s="18" t="str">
+      <c r="V307" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5</v>
       </c>
@@ -38161,7 +38160,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N308" s="17" t="str">
+      <c r="N308" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -38189,7 +38188,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V308" s="18" t="str">
+      <c r="V308" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -38265,7 +38264,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N309" s="17" t="str">
+      <c r="N309" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -38293,7 +38292,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V309" s="18" t="str">
+      <c r="V309" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -38369,7 +38368,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N310" s="17" t="str">
+      <c r="N310" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -38397,7 +38396,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V310" s="18" t="str">
+      <c r="V310" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -38473,7 +38472,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N311" s="17" t="str">
+      <c r="N311" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3</v>
       </c>
@@ -38501,7 +38500,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX3</v>
       </c>
-      <c r="V311" s="18" t="str">
+      <c r="V311" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6</v>
       </c>
@@ -38577,7 +38576,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N312" s="17" t="str">
+      <c r="N312" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2,2.5,3,4</v>
       </c>
@@ -38605,7 +38604,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2_MAX4</v>
       </c>
-      <c r="V312" s="18" t="str">
+      <c r="V312" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -38682,7 +38681,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N313" s="17" t="str">
+      <c r="N313" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -38710,7 +38709,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V313" s="18" t="str">
+      <c r="V313" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -38787,7 +38786,7 @@
         <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="N314" s="17" t="str">
+      <c r="N314" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3</v>
       </c>
@@ -38815,7 +38814,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX3</v>
       </c>
-      <c r="V314" s="18" t="str">
+      <c r="V314" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2.5,3,4,5,6</v>
       </c>
@@ -38892,7 +38891,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N315" s="17" t="str">
+      <c r="N315" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -38920,7 +38919,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V315" s="18" t="str">
+      <c r="V315" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -38997,7 +38996,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N316" s="17" t="str">
+      <c r="N316" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -39025,7 +39024,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V316" s="18" t="str">
+      <c r="V316" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -39102,7 +39101,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N317" s="17" t="str">
+      <c r="N317" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -39130,7 +39129,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V317" s="18" t="str">
+      <c r="V317" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -39207,7 +39206,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N318" s="17" t="str">
+      <c r="N318" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -39235,7 +39234,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V318" s="18" t="str">
+      <c r="V318" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -39312,7 +39311,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N319" s="17" t="str">
+      <c r="N319" s="16" t="str">
         <f t="shared" si="41"/>
         <v>2.5,3,4</v>
       </c>
@@ -39340,7 +39339,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN2.5_MAX4</v>
       </c>
-      <c r="V319" s="18" t="str">
+      <c r="V319" s="17" t="str">
         <f t="shared" si="43"/>
         <v>2,2.5,3,4,5,6,8</v>
       </c>
@@ -39417,7 +39416,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N320" s="17" t="str">
+      <c r="N320" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -39445,7 +39444,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V320" s="18" t="str">
+      <c r="V320" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -39522,7 +39521,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N321" s="17" t="str">
+      <c r="N321" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -39550,7 +39549,7 @@
         <f t="shared" si="38"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V321" s="18" t="str">
+      <c r="V321" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -39627,7 +39626,7 @@
         <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="N322" s="17" t="str">
+      <c r="N322" s="16" t="str">
         <f t="shared" si="41"/>
         <v>3,4</v>
       </c>
@@ -39655,7 +39654,7 @@
         <f t="shared" ref="U322:U351" si="49">"BRANCH_"&amp;"MIN"&amp;L322&amp;"_MAX"&amp;R322</f>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V322" s="18" t="str">
+      <c r="V322" s="17" t="str">
         <f t="shared" si="43"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -39732,7 +39731,7 @@
         <f t="shared" ref="M323:M351" si="51">R323</f>
         <v>4</v>
       </c>
-      <c r="N323" s="17" t="str">
+      <c r="N323" s="16" t="str">
         <f t="shared" ref="N323:N351" si="52">W323</f>
         <v>3,4</v>
       </c>
@@ -39760,7 +39759,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V323" s="18" t="str">
+      <c r="V323" s="17" t="str">
         <f t="shared" ref="V323:V351" si="54">Z323</f>
         <v>3,4,5,6,8</v>
       </c>
@@ -39837,7 +39836,7 @@
         <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="N324" s="17" t="str">
+      <c r="N324" s="16" t="str">
         <f t="shared" si="52"/>
         <v>3,4</v>
       </c>
@@ -39865,7 +39864,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V324" s="18" t="str">
+      <c r="V324" s="17" t="str">
         <f t="shared" si="54"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -39942,7 +39941,7 @@
         <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="N325" s="17" t="str">
+      <c r="N325" s="16" t="str">
         <f t="shared" si="52"/>
         <v>3,4</v>
       </c>
@@ -39970,7 +39969,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V325" s="18" t="str">
+      <c r="V325" s="17" t="str">
         <f t="shared" si="54"/>
         <v>3,4,5,6,8</v>
       </c>
@@ -40047,7 +40046,7 @@
         <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="N326" s="17" t="str">
+      <c r="N326" s="16" t="str">
         <f t="shared" si="52"/>
         <v>3,4</v>
       </c>
@@ -40075,7 +40074,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX4</v>
       </c>
-      <c r="V326" s="18" t="str">
+      <c r="V326" s="17" t="str">
         <f t="shared" si="54"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -40152,7 +40151,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N327" s="17" t="str">
+      <c r="N327" s="16" t="str">
         <f t="shared" si="52"/>
         <v>3,4,5</v>
       </c>
@@ -40180,7 +40179,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V327" s="18" t="str">
+      <c r="V327" s="17" t="str">
         <f t="shared" si="54"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -40257,7 +40256,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N328" s="17" t="str">
+      <c r="N328" s="16" t="str">
         <f t="shared" si="52"/>
         <v>3,4,5</v>
       </c>
@@ -40285,7 +40284,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN3_MAX5</v>
       </c>
-      <c r="V328" s="18" t="str">
+      <c r="V328" s="17" t="str">
         <f t="shared" si="54"/>
         <v>3,4,5,6,8,10</v>
       </c>
@@ -40362,7 +40361,7 @@
         <f t="shared" si="51"/>
         <v>4</v>
       </c>
-      <c r="N329" s="17">
+      <c r="N329" s="16">
         <f t="shared" si="52"/>
         <v>4</v>
       </c>
@@ -40390,7 +40389,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX4</v>
       </c>
-      <c r="V329" s="18" t="str">
+      <c r="V329" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8</v>
       </c>
@@ -40467,7 +40466,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N330" s="17" t="str">
+      <c r="N330" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5</v>
       </c>
@@ -40495,7 +40494,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V330" s="18" t="str">
+      <c r="V330" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -40572,7 +40571,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N331" s="17" t="str">
+      <c r="N331" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5</v>
       </c>
@@ -40600,7 +40599,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V331" s="18" t="str">
+      <c r="V331" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -40677,7 +40676,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N332" s="17" t="str">
+      <c r="N332" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5</v>
       </c>
@@ -40705,7 +40704,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V332" s="18" t="str">
+      <c r="V332" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -40782,7 +40781,7 @@
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="N333" s="17" t="str">
+      <c r="N333" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5</v>
       </c>
@@ -40810,7 +40809,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX5</v>
       </c>
-      <c r="V333" s="18" t="str">
+      <c r="V333" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -40887,7 +40886,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N334" s="17" t="str">
+      <c r="N334" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5,6</v>
       </c>
@@ -40915,7 +40914,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V334" s="18" t="str">
+      <c r="V334" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10</v>
       </c>
@@ -40992,7 +40991,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N335" s="17" t="str">
+      <c r="N335" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5,6</v>
       </c>
@@ -41020,7 +41019,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V335" s="18" t="str">
+      <c r="V335" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10,12</v>
       </c>
@@ -41097,7 +41096,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N336" s="17" t="str">
+      <c r="N336" s="16" t="str">
         <f t="shared" si="52"/>
         <v>4,5,6</v>
       </c>
@@ -41125,7 +41124,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN4_MAX6</v>
       </c>
-      <c r="V336" s="18" t="str">
+      <c r="V336" s="17" t="str">
         <f t="shared" si="54"/>
         <v>4,5,6,8,10,12</v>
       </c>
@@ -41202,7 +41201,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N337" s="17" t="str">
+      <c r="N337" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41230,7 +41229,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V337" s="18" t="str">
+      <c r="V337" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -41307,7 +41306,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N338" s="17" t="str">
+      <c r="N338" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41335,7 +41334,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V338" s="18" t="str">
+      <c r="V338" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -41412,7 +41411,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N339" s="17" t="str">
+      <c r="N339" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41440,7 +41439,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V339" s="18" t="str">
+      <c r="V339" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -41517,7 +41516,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N340" s="17" t="str">
+      <c r="N340" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41545,7 +41544,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V340" s="18" t="str">
+      <c r="V340" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -41622,7 +41621,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N341" s="17" t="str">
+      <c r="N341" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6,8</v>
       </c>
@@ -41650,7 +41649,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V341" s="18" t="str">
+      <c r="V341" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -41727,7 +41726,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N342" s="17" t="str">
+      <c r="N342" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6,8</v>
       </c>
@@ -41755,7 +41754,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V342" s="18" t="str">
+      <c r="V342" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -41832,7 +41831,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N343" s="17" t="str">
+      <c r="N343" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41860,7 +41859,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V343" s="18" t="str">
+      <c r="V343" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -41937,7 +41936,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N344" s="17" t="str">
+      <c r="N344" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -41965,7 +41964,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V344" s="18" t="str">
+      <c r="V344" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -42042,7 +42041,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N345" s="17" t="str">
+      <c r="N345" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6,8</v>
       </c>
@@ -42070,7 +42069,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V345" s="18" t="str">
+      <c r="V345" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -42147,7 +42146,7 @@
         <f t="shared" si="51"/>
         <v>6</v>
       </c>
-      <c r="N346" s="17" t="str">
+      <c r="N346" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6</v>
       </c>
@@ -42175,7 +42174,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX6</v>
       </c>
-      <c r="V346" s="18" t="str">
+      <c r="V346" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12</v>
       </c>
@@ -42252,7 +42251,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N347" s="17" t="str">
+      <c r="N347" s="16" t="str">
         <f t="shared" si="52"/>
         <v>5,6,8</v>
       </c>
@@ -42280,7 +42279,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN5_MAX8</v>
       </c>
-      <c r="V347" s="18" t="str">
+      <c r="V347" s="17" t="str">
         <f t="shared" si="54"/>
         <v>5,6,8,10,12,14</v>
       </c>
@@ -42357,7 +42356,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N348" s="17" t="str">
+      <c r="N348" s="16" t="str">
         <f t="shared" si="52"/>
         <v>6,8</v>
       </c>
@@ -42385,7 +42384,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V348" s="18" t="str">
+      <c r="V348" s="17" t="str">
         <f t="shared" si="54"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -42462,7 +42461,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N349" s="17" t="str">
+      <c r="N349" s="16" t="str">
         <f t="shared" si="52"/>
         <v>6,8</v>
       </c>
@@ -42490,7 +42489,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V349" s="18" t="str">
+      <c r="V349" s="17" t="str">
         <f t="shared" si="54"/>
         <v>6,8,10,12,14,16</v>
       </c>
@@ -42567,7 +42566,7 @@
         <f t="shared" si="51"/>
         <v>8</v>
       </c>
-      <c r="N350" s="17" t="str">
+      <c r="N350" s="16" t="str">
         <f t="shared" si="52"/>
         <v>6,8</v>
       </c>
@@ -42595,7 +42594,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN6_MAX8</v>
       </c>
-      <c r="V350" s="18" t="str">
+      <c r="V350" s="17" t="str">
         <f t="shared" si="54"/>
         <v>6,8,10,12,14,16,18</v>
       </c>
@@ -42672,7 +42671,7 @@
         <f t="shared" si="51"/>
         <v>10</v>
       </c>
-      <c r="N351" s="17" t="str">
+      <c r="N351" s="16" t="str">
         <f t="shared" si="52"/>
         <v>8,10</v>
       </c>
@@ -42700,7 +42699,7 @@
         <f t="shared" si="49"/>
         <v>BRANCH_MIN8_MAX10</v>
       </c>
-      <c r="V351" s="18" t="str">
+      <c r="V351" s="17" t="str">
         <f t="shared" si="54"/>
         <v>8,10,12,14,16,18</v>
       </c>
